--- a/biology/Zoologie/Faux_Apollon_kurde/Faux_Apollon_kurde.xlsx
+++ b/biology/Zoologie/Faux_Apollon_kurde/Faux_Apollon_kurde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archon apollinaris
 Le Faux Apollon kurde (Archon apollinaris) est un insecte lépidoptère appartenant à la famille des Papilionidae, à la sous-famille des Parnassiinae et au genre Archon.
@@ -512,11 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Archon apollinaris a été nommé par Otto Staudinger en 1892.
-Noms vernaculaires
-Le Faux Apollon kurde se nomme False Apollo en Anglais[1].
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Faux Apollon kurde est un papillon de taille moyenne au dessus blanc avec deux taches noires qui barrent les antérieures et une bordure de taches rouges et bleu près de la marge.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faux Apollon kurde se nomme False Apollo en Anglais.
 </t>
         </is>
       </c>
@@ -573,16 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est très proche de celle du Faux Apollon Archon apollinus
-Période de vol et hivernation
-Sa période de vol s'étend de fin mars à début mai, une seule génération.
-Plantes hôtes
-Les plantes hôtes sont des aristoloches.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faux Apollon kurde est un papillon de taille moyenne au dessus blanc avec deux taches noires qui barrent les antérieures et une bordure de taches rouges et bleu près de la marge.
 </t>
         </is>
       </c>
@@ -608,12 +624,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est très proche de celle du Faux Apollon Archon apollinus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faux_Apollon_kurde</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_Apollon_kurde</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa période de vol s'étend de fin mars à début mai, une seule génération.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faux_Apollon_kurde</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_Apollon_kurde</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont des aristoloches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faux_Apollon_kurde</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_Apollon_kurde</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire de répartition comprend Turquie orientale, nord et est de l'Irak, ouest et centre de l'Iran[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de répartition comprend Turquie orientale, nord et est de l'Irak, ouest et centre de l'Iran.
 </t>
         </is>
       </c>
